--- a/VerveStacks_ESP/vt_vervestacks_ESP_v1.xlsx
+++ b/VerveStacks_ESP/vt_vervestacks_ESP_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ESP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7553F87-492B-4EF1-ADCE-05BFE3AF0082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A2AFA4A-F8FC-4D43-BCB0-6868D09E5832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{D6028DBA-06CF-456D-8B7C-7BF45C34E6EF}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{E6CC4E1B-69D0-4C1C-BB5E-36501CEF59E3}"/>
   </bookViews>
   <sheets>
     <sheet name="ccs_retrofits" sheetId="2" r:id="rId1"/>
@@ -1861,7 +1861,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF1DC0CF-3AA5-A368-667C-86D6F3C1ED2B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{845E9C06-0DD5-37DE-547D-E702BAAAA168}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1916,7 +1916,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE7FC3C6-7017-9F08-D0B6-C4059D1BEE49}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BC0A8B1-9CB6-2559-B6AE-91905C31AB0F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2267,7 +2267,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1331A6D-3B93-4078-8BC5-BC47EB184D42}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D49C7F0-D66E-4056-A124-6B6E9C12B694}">
   <dimension ref="A1:U130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -8382,7 +8382,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90BA160A-BC77-4C0D-99C7-E01B0D54DCA9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E37EC92-C6FB-428A-81D3-E430ECAB9729}">
   <dimension ref="A1:T358"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
